--- a/src/main/java/com/amt/testData/NewTestData.xlsx
+++ b/src/main/java/com/amt/testData/NewTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="350"/>
   </bookViews>
   <sheets>
     <sheet name="HPNR_BCH_withMaint_Edit" sheetId="1" state="visible" r:id="rId2"/>
@@ -358,7 +358,7 @@
     <sheet name="audibrokerHPR" sheetId="348" state="visible" r:id="rId349"/>
     <sheet name="OutrightHPNRwithoutMaintenance" sheetId="349" state="visible" r:id="rId350"/>
     <sheet name="BrokerFLwithoutMaintenance" sheetId="350" state="visible" r:id="rId351"/>
-    <sheet name="Sheet350" sheetId="351" state="visible" r:id="rId352"/>
+    <sheet name="RefreshLinkQuotes" sheetId="351" state="visible" r:id="rId352"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -946,7 +946,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10580" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10579" uniqueCount="212">
   <si>
     <t xml:space="preserve">Vehicle Basic Price</t>
   </si>
@@ -1575,13 +1575,13 @@
     <t xml:space="preserve">commisionvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer</t>
+    <t xml:space="preserve">Quote No</t>
   </si>
   <si>
-    <t xml:space="preserve">Model</t>
+    <t xml:space="preserve">YTD56528</t>
   </si>
   <si>
-    <t xml:space="preserve">Road Tax For First Year</t>
+    <t xml:space="preserve">GED97884</t>
   </si>
 </sst>
 </file>
@@ -1713,11 +1713,11 @@
   </sheetPr>
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -1900,10 +1900,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -2125,10 +2125,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2320,10 +2320,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2515,10 +2515,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2710,10 +2710,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -2905,10 +2905,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3100,10 +3100,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3301,10 +3301,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3514,10 +3514,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -3715,10 +3715,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -3928,10 +3928,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4141,10 +4141,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -4354,10 +4354,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4567,10 +4567,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4780,10 +4780,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -4993,10 +4993,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5206,10 +5206,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -5419,10 +5419,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5620,10 +5620,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -5821,10 +5821,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6022,10 +6022,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6223,10 +6223,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6424,10 +6424,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -6649,10 +6649,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -6850,10 +6850,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -6960,10 +6960,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7125,10 +7125,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7302,10 +7302,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7464,10 +7464,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -7641,10 +7641,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7803,10 +7803,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -7965,10 +7965,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A3 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8122,10 +8122,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8298,10 +8298,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -8505,10 +8505,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8662,10 +8662,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -8838,10 +8838,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -8995,10 +8995,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9171,10 +9171,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9328,10 +9328,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9504,10 +9504,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9661,10 +9661,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -9836,10 +9836,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -9993,10 +9993,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10168,10 +10168,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -10375,10 +10375,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10532,10 +10532,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -10708,10 +10708,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -10865,10 +10865,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11041,10 +11041,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -11198,10 +11198,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11373,10 +11373,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -11530,10 +11530,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -11705,10 +11705,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -11889,10 +11889,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12085,10 +12085,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -12292,10 +12292,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -12488,10 +12488,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12624,10 +12624,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -12782,10 +12782,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -12900,10 +12900,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13036,10 +13036,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13154,10 +13154,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13290,10 +13290,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -13450,10 +13450,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -13628,10 +13628,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -13794,10 +13794,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -14001,10 +14001,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14179,10 +14179,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14344,10 +14344,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14522,10 +14522,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -14687,10 +14687,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -14865,10 +14865,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -15030,10 +15030,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -15208,10 +15208,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15374,10 +15374,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -15558,10 +15558,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -15724,10 +15724,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -15931,10 +15931,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16115,10 +16115,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16287,10 +16287,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16471,10 +16471,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16637,10 +16637,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A3 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -16821,10 +16821,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -16993,10 +16993,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17177,10 +17177,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -17349,10 +17349,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -17533,10 +17533,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
@@ -17747,10 +17747,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -17954,10 +17954,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18179,10 +18179,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -18392,10 +18392,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.31"/>
@@ -18617,10 +18617,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -18824,10 +18824,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19031,10 +19031,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19238,10 +19238,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19445,10 +19445,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19652,10 +19652,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -19859,10 +19859,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20066,10 +20066,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20273,10 +20273,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20481,10 +20481,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -20694,10 +20694,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -20919,10 +20919,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -21132,10 +21132,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21357,10 +21357,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21582,10 +21582,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -21807,10 +21807,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22032,10 +22032,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22257,10 +22257,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -22482,10 +22482,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -22596,10 +22596,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -22804,10 +22804,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -23029,10 +23029,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23242,10 +23242,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23455,10 +23455,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23668,10 +23668,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -23881,10 +23881,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24094,10 +24094,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -24307,10 +24307,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A3 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24476,10 +24476,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -24663,10 +24663,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -24832,10 +24832,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -25025,10 +25025,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25212,10 +25212,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25381,10 +25381,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25569,10 +25569,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -25738,10 +25738,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -25926,10 +25926,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26114,10 +26114,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26283,10 +26283,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -26471,10 +26471,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26640,10 +26640,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -26809,10 +26809,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -27002,10 +27002,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27190,10 +27190,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27359,10 +27359,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27547,10 +27547,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -27716,10 +27716,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -27903,10 +27903,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -28072,10 +28072,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -28259,10 +28259,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -28415,10 +28415,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -28585,10 +28585,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -28715,10 +28715,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -28920,10 +28920,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -29068,10 +29068,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29261,10 +29261,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -29454,10 +29454,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29659,10 +29659,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -29864,10 +29864,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30027,10 +30027,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30202,10 +30202,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30365,10 +30365,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -30528,10 +30528,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="A3 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -30703,10 +30703,10 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="958" style="1" width="11.52"/>
   </cols>
@@ -30908,10 +30908,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31071,10 +31071,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31246,10 +31246,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31409,10 +31409,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31584,10 +31584,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -31759,10 +31759,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -31922,10 +31922,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32097,10 +32097,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32260,10 +32260,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32435,10 +32435,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -32610,10 +32610,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -32823,10 +32823,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -32986,10 +32986,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -33161,10 +33161,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1014" style="1" width="11.52"/>
@@ -33271,10 +33271,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33484,10 +33484,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -33697,10 +33697,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -33898,10 +33898,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34099,10 +34099,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34312,10 +34312,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -34525,10 +34525,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -34726,10 +34726,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -34951,10 +34951,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35152,10 +35152,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35347,10 +35347,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35542,10 +35542,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35737,10 +35737,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -35932,10 +35932,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36127,10 +36127,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36322,10 +36322,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36517,10 +36517,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36712,10 +36712,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -36913,10 +36913,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -37126,10 +37126,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37327,10 +37327,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37528,10 +37528,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37729,10 +37729,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -37930,10 +37930,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="A3 E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -38131,10 +38131,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38344,10 +38344,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38557,10 +38557,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38770,10 +38770,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -38983,10 +38983,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39196,10 +39196,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -39421,10 +39421,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -39634,10 +39634,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A3 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -39799,10 +39799,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -39983,10 +39983,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40179,10 +40179,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="8" style="1" width="19.31"/>
@@ -40375,10 +40375,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="19.31"/>
@@ -40559,10 +40559,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -40716,10 +40716,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -40892,10 +40892,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -41068,10 +41068,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -41225,10 +41225,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -41450,10 +41450,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -41610,10 +41610,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -41788,10 +41788,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -41954,10 +41954,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -42132,10 +42132,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42308,10 +42308,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42465,10 +42465,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42641,10 +42641,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -42798,10 +42798,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -42973,10 +42973,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="0" width="23.08"/>
   </cols>
@@ -43130,10 +43130,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.08"/>
@@ -43244,10 +43244,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -43469,10 +43469,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="1" sqref="A3 J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -43626,10 +43626,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="Q1" activeCellId="1" sqref="A3 Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -43801,10 +43801,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -43967,10 +43967,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44151,10 +44151,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="A3 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44335,10 +44335,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44507,10 +44507,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -44691,10 +44691,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -44863,10 +44863,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45041,10 +45041,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45219,10 +45219,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -45444,10 +45444,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.31"/>
@@ -45622,10 +45622,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45787,10 +45787,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.31"/>
@@ -45952,10 +45952,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="3" style="1" width="23.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="1" width="11.52"/>
@@ -46122,10 +46122,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="3" style="1" width="23.08"/>
   </cols>
@@ -46273,10 +46273,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -46409,10 +46409,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46585,10 +46585,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -46761,10 +46761,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -46918,10 +46918,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47093,10 +47093,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -47318,10 +47318,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="3" style="1" width="23.08"/>
   </cols>
@@ -47493,10 +47493,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47650,10 +47650,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -47807,10 +47807,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -47984,10 +47984,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -48161,10 +48161,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48323,10 +48323,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48485,10 +48485,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -48647,10 +48647,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -48795,10 +48795,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -48963,10 +48963,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -49188,10 +49188,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23.66"/>
@@ -49370,10 +49370,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="23.66"/>
@@ -49528,10 +49528,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49688,10 +49688,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -49838,10 +49838,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -49998,10 +49998,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="1" sqref="A3 K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50140,10 +50140,10 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.05"/>
@@ -50290,10 +50290,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="17.83"/>
@@ -50455,10 +50455,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50591,10 +50591,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -50709,10 +50709,10 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="19.31"/>
@@ -50934,10 +50934,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51070,10 +51070,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topLeft" activeCell="Y1" activeCellId="1" sqref="A3 Y1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51254,10 +51254,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51420,10 +51420,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.2265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="41.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -51586,10 +51586,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -51770,10 +51770,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
@@ -51942,10 +51942,10 @@
   <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="19.31"/>
@@ -52126,10 +52126,10 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52244,10 +52244,10 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.35"/>
@@ -52359,10 +52359,10 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="3" style="1" width="23.08"/>
   </cols>
@@ -52516,10 +52516,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -52729,10 +52729,10 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -52862,29 +52862,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.23"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>211</v>
       </c>
     </row>
@@ -52907,10 +52904,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53120,10 +53117,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53333,10 +53330,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53546,10 +53543,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="1" sqref="A3 G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -53759,10 +53756,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -53933,10 +53930,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.31"/>
@@ -54146,10 +54143,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -54321,10 +54318,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54509,10 +54506,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -54678,10 +54675,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -54866,10 +54863,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="A3 O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55035,10 +55032,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55204,10 +55201,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A3 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55391,10 +55388,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -55560,10 +55557,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="A3 Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -55747,10 +55744,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -55936,10 +55933,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56105,10 +56102,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56293,10 +56290,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+      <selection pane="topLeft" activeCell="R2" activeCellId="1" sqref="A3 R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56462,10 +56459,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A3 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -56650,10 +56647,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A3 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -56819,10 +56816,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A3 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57007,10 +57004,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A3 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57176,10 +57173,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A3 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57364,10 +57361,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A3 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -57533,10 +57530,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="Z2" activeCellId="1" sqref="A3 Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -57720,10 +57717,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="20.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="21.57"/>
@@ -57895,10 +57892,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A3 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="5" style="1" width="23.08"/>
   </cols>
@@ -58064,10 +58061,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.2109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="20.31640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="23.08"/>
   </cols>
@@ -58251,10 +58248,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.92"/>
@@ -58407,10 +58404,10 @@
   <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+      <selection pane="topLeft" activeCell="W2" activeCellId="1" sqref="A3 W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.66"/>
@@ -58577,10 +58574,10 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58707,10 +58704,10 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="A3 F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -58855,10 +58852,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59018,10 +59015,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59193,10 +59190,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59356,10 +59353,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="1" sqref="A3 E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -59519,10 +59516,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="17.83"/>
@@ -59693,10 +59690,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -59868,10 +59865,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60031,10 +60028,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60206,10 +60203,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
+      <selection pane="topLeft" activeCell="V2" activeCellId="1" sqref="A3 V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60369,10 +60366,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+      <selection pane="topLeft" activeCell="X2" activeCellId="1" sqref="A3 X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60544,10 +60541,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -60707,10 +60704,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -60882,10 +60879,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61045,10 +61042,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61220,10 +61217,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61383,10 +61380,10 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="A3 H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="17.83"/>
@@ -61572,10 +61569,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -61747,10 +61744,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -61910,10 +61907,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62085,10 +62082,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62248,10 +62245,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+      <selection pane="topLeft" activeCell="M2" activeCellId="1" sqref="A3 M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62423,10 +62420,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62586,10 +62583,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -62761,10 +62758,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -62924,10 +62921,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63099,10 +63096,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63262,10 +63259,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A3 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="5" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -63475,10 +63472,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63650,10 +63647,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="954" style="1" width="11.52"/>
   </cols>
@@ -63813,10 +63810,10 @@
   <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="956" style="1" width="11.52"/>
   </cols>
@@ -63988,10 +63985,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64189,10 +64186,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64402,10 +64399,10 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="19.31"/>
@@ -64603,10 +64600,10 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.31"/>
@@ -64816,10 +64813,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65011,10 +65008,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
@@ -65206,10 +65203,10 @@
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="A3 D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="22.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="3" style="1" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="19.31"/>
